--- a/data/trans_orig/P78C8_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C8_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{390434C0-3D0E-4A2E-9562-F272D0AF195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDE21F4-B64E-4CDA-94E8-2FEDC2C30C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{144086B2-E0E6-4223-96BC-FFF3A67BD0E9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9750DA8F-FA66-427F-B480-0039B31050BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99644A7-F63F-4CBF-88E5-A344579F4D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E393E9-03D2-4D0A-B81A-81AAF3B90AC9}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>15</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>13</v>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>15</v>
